--- a/data/zenodo/conversion/chp/CHE_convchp_biomass.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_biomass.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D407BA-55FA-6947-BC1E-BFC9D7D93EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3296F55-00BE-8642-BABA-A348D0D3E433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="82">
   <si>
     <t>Name:</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -697,11 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -803,16 +806,13 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -824,13 +824,13 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -845,16 +845,16 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -866,20 +866,18 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10">
-        <v>0.9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -889,22 +887,19 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
+        <v>0.9</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
-      </c>
-      <c r="L11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -915,19 +910,22 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -937,19 +935,21 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>75</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -959,16 +959,16 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -980,22 +980,16 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>68</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1007,22 +1001,22 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>57.6</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1034,19 +1028,22 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>57.6</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
         <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1058,20 +1055,21 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="G18">
-        <v>0.88</v>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
       </c>
       <c r="I18" t="s">
         <v>43</v>
       </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1081,21 +1079,20 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1104,30 +1101,22 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>42</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="s">
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1143,7 +1132,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1175,10 +1164,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
@@ -1207,10 +1196,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
@@ -1239,10 +1228,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -1271,10 +1260,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
@@ -1303,10 +1292,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1335,10 +1324,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
@@ -1367,10 +1356,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
@@ -1399,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -1431,10 +1420,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -1463,7 +1452,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -1495,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
@@ -1527,10 +1516,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
         <v>42</v>
@@ -1559,10 +1548,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
@@ -1591,10 +1580,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
@@ -1623,10 +1612,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -1655,10 +1644,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
@@ -1687,10 +1676,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
@@ -1719,10 +1708,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -1751,10 +1740,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -1783,10 +1772,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
@@ -1815,10 +1804,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
@@ -1847,10 +1836,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -1879,10 +1868,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -1911,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -1943,10 +1932,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
@@ -1975,10 +1964,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
         <v>42</v>
@@ -2007,10 +1996,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="H48" t="s">
         <v>42</v>
@@ -2039,10 +2028,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -2065,25 +2054,28 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>3480</v>
+        <v>313</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2100,7 +2092,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>3480</v>
@@ -2129,7 +2121,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>3480</v>
@@ -2158,7 +2150,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>3480</v>
@@ -2187,7 +2179,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
         <v>3480</v>
@@ -2216,7 +2208,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
         <v>3480</v>
@@ -2228,10 +2220,7 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2248,10 +2237,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>11180</v>
+        <v>3480</v>
       </c>
       <c r="H56" t="s">
         <v>46</v>
@@ -2280,10 +2269,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
-        <v>13900</v>
+        <v>11180</v>
       </c>
       <c r="H57" t="s">
         <v>46</v>
@@ -2312,10 +2301,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>15650</v>
+        <v>13900</v>
       </c>
       <c r="H58" t="s">
         <v>46</v>
@@ -2344,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
         <v>15650</v>
@@ -2376,7 +2365,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
         <v>15650</v>
@@ -2408,10 +2397,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>15550</v>
+        <v>15650</v>
       </c>
       <c r="H61" t="s">
         <v>46</v>
@@ -2440,10 +2429,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
-        <v>9876</v>
+        <v>15550</v>
       </c>
       <c r="H62" t="s">
         <v>46</v>
@@ -2472,10 +2461,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
-        <v>10211</v>
+        <v>9876</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
@@ -2504,10 +2493,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
-        <v>10272</v>
+        <v>10211</v>
       </c>
       <c r="H64" t="s">
         <v>46</v>
@@ -2536,10 +2525,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
-        <v>10139</v>
+        <v>10272</v>
       </c>
       <c r="H65" t="s">
         <v>46</v>
@@ -2568,10 +2557,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>15877</v>
+        <v>10139</v>
       </c>
       <c r="H66" t="s">
         <v>46</v>
@@ -2600,10 +2589,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
-        <v>54394</v>
+        <v>15877</v>
       </c>
       <c r="H67" t="s">
         <v>46</v>
@@ -2632,10 +2621,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>116972</v>
+        <v>54394</v>
       </c>
       <c r="H68" t="s">
         <v>46</v>
@@ -2664,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
         <v>116972</v>
@@ -2696,10 +2685,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>191385</v>
+        <v>116972</v>
       </c>
       <c r="H70" t="s">
         <v>46</v>
@@ -2728,7 +2717,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
         <v>191385</v>
@@ -2760,10 +2749,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>221385</v>
+        <v>191385</v>
       </c>
       <c r="H72" t="s">
         <v>46</v>
@@ -2792,10 +2781,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>222385</v>
+        <v>221385</v>
       </c>
       <c r="H73" t="s">
         <v>46</v>
@@ -2824,7 +2813,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
         <v>222385</v>
@@ -2856,10 +2845,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
-        <v>227635</v>
+        <v>222385</v>
       </c>
       <c r="H75" t="s">
         <v>46</v>
@@ -2888,10 +2877,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>214635</v>
+        <v>227635</v>
       </c>
       <c r="H76" t="s">
         <v>46</v>
@@ -2920,10 +2909,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
-        <v>220985</v>
+        <v>214635</v>
       </c>
       <c r="H77" t="s">
         <v>46</v>
@@ -2952,10 +2941,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
-        <v>226782</v>
+        <v>220985</v>
       </c>
       <c r="H78" t="s">
         <v>46</v>
@@ -2984,10 +2973,10 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
-        <v>263892</v>
+        <v>226782</v>
       </c>
       <c r="H79" t="s">
         <v>46</v>
@@ -3010,16 +2999,16 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>263892</v>
       </c>
       <c r="H80" t="s">
         <v>46</v>
@@ -3031,7 +3020,7 @@
         <v>48</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3048,7 +3037,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3080,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3112,7 +3101,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3144,7 +3133,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3176,10 +3165,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
-        <v>3480</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>46</v>
@@ -3208,10 +3197,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>7700</v>
+        <v>3480</v>
       </c>
       <c r="H86" t="s">
         <v>46</v>
@@ -3240,10 +3229,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>2720</v>
+        <v>7700</v>
       </c>
       <c r="H87" t="s">
         <v>46</v>
@@ -3272,10 +3261,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>1750</v>
+        <v>2720</v>
       </c>
       <c r="H88" t="s">
         <v>46</v>
@@ -3304,10 +3293,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H89" t="s">
         <v>46</v>
@@ -3336,7 +3325,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3368,7 +3357,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3400,7 +3389,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3432,10 +3421,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>46</v>
@@ -3464,10 +3453,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="H94" t="s">
         <v>46</v>
@@ -3496,10 +3485,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H95" t="s">
         <v>46</v>
@@ -3528,10 +3517,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>5738</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>46</v>
@@ -3560,10 +3549,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
-        <v>38517</v>
+        <v>5738</v>
       </c>
       <c r="H97" t="s">
         <v>46</v>
@@ -3592,10 +3581,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>62578</v>
+        <v>38517</v>
       </c>
       <c r="H98" t="s">
         <v>46</v>
@@ -3624,10 +3613,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>62578</v>
       </c>
       <c r="H99" t="s">
         <v>46</v>
@@ -3656,10 +3645,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>74413</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>46</v>
@@ -3688,10 +3677,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>74413</v>
       </c>
       <c r="H101" t="s">
         <v>46</v>
@@ -3720,10 +3709,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>46</v>
@@ -3752,10 +3741,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="H103" t="s">
         <v>46</v>
@@ -3784,10 +3773,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H104" t="s">
         <v>46</v>
@@ -3816,10 +3805,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
         <v>46</v>
@@ -3848,10 +3837,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="H106" t="s">
         <v>46</v>
@@ -3880,10 +3869,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
-        <v>6350</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
         <v>46</v>
@@ -3912,10 +3901,10 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
-        <v>5797</v>
+        <v>6350</v>
       </c>
       <c r="H108" t="s">
         <v>46</v>
@@ -3944,10 +3933,10 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
-        <v>37110</v>
+        <v>5797</v>
       </c>
       <c r="H109" t="s">
         <v>46</v>
@@ -3970,16 +3959,16 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>37110</v>
       </c>
       <c r="H110" t="s">
         <v>46</v>
@@ -4008,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4040,7 +4029,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4072,7 +4061,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4104,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4136,7 +4125,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4168,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4200,7 +4189,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4232,7 +4221,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4264,7 +4253,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4296,7 +4285,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4328,10 +4317,10 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
         <v>46</v>
@@ -4360,10 +4349,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
-        <v>5674</v>
+        <v>100</v>
       </c>
       <c r="H122" t="s">
         <v>46</v>
@@ -4392,10 +4381,10 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>5674</v>
       </c>
       <c r="H123" t="s">
         <v>46</v>
@@ -4424,7 +4413,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4456,10 +4445,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
         <v>46</v>
@@ -4488,10 +4477,10 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H126" t="s">
         <v>46</v>
@@ -4520,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4552,7 +4541,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4584,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4616,7 +4605,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4648,7 +4637,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4680,7 +4669,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4712,7 +4701,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4744,7 +4733,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4776,7 +4765,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4808,10 +4797,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>46</v>
@@ -4840,10 +4829,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H137" t="s">
         <v>46</v>
@@ -4872,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4904,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4930,16 +4919,28 @@
         <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>46</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
+      </c>
+      <c r="J140" t="s">
+        <v>48</v>
+      </c>
+      <c r="L140" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4956,7 +4957,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
@@ -4976,7 +4977,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -4996,7 +4997,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
@@ -5016,7 +5017,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>43</v>
@@ -5036,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
@@ -5056,7 +5057,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -5076,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>43</v>
@@ -5096,7 +5097,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>43</v>
@@ -5116,7 +5117,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>43</v>
@@ -5136,7 +5137,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>43</v>
@@ -5156,7 +5157,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -5176,7 +5177,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
@@ -5196,7 +5197,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>43</v>
@@ -5216,7 +5217,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>43</v>
@@ -5236,7 +5237,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>43</v>
@@ -5256,7 +5257,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>43</v>
@@ -5276,7 +5277,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>43</v>
@@ -5296,7 +5297,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
@@ -5316,7 +5317,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
@@ -5336,7 +5337,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
@@ -5356,7 +5357,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
@@ -5376,7 +5377,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>43</v>
@@ -5396,7 +5397,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -5416,7 +5417,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>43</v>
@@ -5436,7 +5437,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>43</v>
@@ -5456,7 +5457,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>43</v>
@@ -5476,7 +5477,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>43</v>
@@ -5496,22 +5497,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>500</v>
-      </c>
-      <c r="H168" t="s">
-        <v>54</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>43</v>
-      </c>
-      <c r="J168" t="s">
-        <v>55</v>
-      </c>
-      <c r="L168" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5528,10 +5517,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>500</v>
+      </c>
+      <c r="H169" t="s">
+        <v>54</v>
       </c>
       <c r="I169" t="s">
         <v>43</v>
+      </c>
+      <c r="J169" t="s">
+        <v>55</v>
+      </c>
+      <c r="L169" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5542,13 +5543,13 @@
         <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>43</v>
@@ -5568,7 +5569,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>43</v>
@@ -5588,7 +5589,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>43</v>
@@ -5608,7 +5609,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
@@ -5628,7 +5629,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
@@ -5648,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
@@ -5668,7 +5669,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>43</v>
@@ -5688,7 +5689,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>43</v>
@@ -5708,7 +5709,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>43</v>
@@ -5728,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>43</v>
@@ -5748,7 +5749,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>43</v>
@@ -5768,7 +5769,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>43</v>
@@ -5788,7 +5789,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>43</v>
@@ -5808,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>43</v>
@@ -5828,7 +5829,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
@@ -5848,7 +5849,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -5868,7 +5869,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -5888,7 +5889,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>43</v>
@@ -5908,7 +5909,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>43</v>
@@ -5928,7 +5929,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>43</v>
@@ -5948,7 +5949,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -5968,7 +5969,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>43</v>
@@ -5988,7 +5989,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>43</v>
@@ -6008,7 +6009,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -6028,7 +6029,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>43</v>
@@ -6048,7 +6049,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I195" t="s">
         <v>43</v>
@@ -6068,7 +6069,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>43</v>
@@ -6088,7 +6089,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>43</v>
@@ -6108,22 +6109,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
-      </c>
-      <c r="G198">
-        <v>4444</v>
-      </c>
-      <c r="H198" t="s">
-        <v>54</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
-      </c>
-      <c r="J198" t="s">
-        <v>55</v>
-      </c>
-      <c r="L198" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6140,10 +6129,22 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G199">
+        <v>4444</v>
+      </c>
+      <c r="H199" t="s">
+        <v>54</v>
       </c>
       <c r="I199" t="s">
         <v>43</v>
+      </c>
+      <c r="J199" t="s">
+        <v>55</v>
+      </c>
+      <c r="L199" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6154,13 +6155,13 @@
         <v>41</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>43</v>
@@ -6180,7 +6181,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>43</v>
@@ -6200,7 +6201,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -6220,7 +6221,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>43</v>
@@ -6240,7 +6241,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>43</v>
@@ -6260,7 +6261,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>43</v>
@@ -6280,7 +6281,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>43</v>
@@ -6300,7 +6301,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
@@ -6320,7 +6321,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
@@ -6340,7 +6341,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>43</v>
@@ -6360,7 +6361,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>43</v>
@@ -6380,7 +6381,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>43</v>
@@ -6400,7 +6401,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>43</v>
@@ -6420,7 +6421,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>43</v>
@@ -6440,7 +6441,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>43</v>
@@ -6460,7 +6461,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>43</v>
@@ -6480,7 +6481,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>43</v>
@@ -6500,7 +6501,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>43</v>
@@ -6520,7 +6521,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -6540,7 +6541,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>43</v>
@@ -6560,7 +6561,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>43</v>
@@ -6580,7 +6581,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>43</v>
@@ -6600,7 +6601,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -6620,7 +6621,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -6640,7 +6641,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -6660,7 +6661,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
@@ -6680,7 +6681,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
@@ -6700,7 +6701,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
@@ -6720,22 +6721,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>43</v>
-      </c>
-      <c r="J228" t="s">
-        <v>55</v>
-      </c>
-      <c r="L228" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6752,10 +6741,22 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>57</v>
       </c>
       <c r="I229" t="s">
         <v>43</v>
+      </c>
+      <c r="J229" t="s">
+        <v>55</v>
+      </c>
+      <c r="L229" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6766,28 +6767,16 @@
         <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>43</v>
-      </c>
-      <c r="J230" t="s">
-        <v>60</v>
-      </c>
-      <c r="L230" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6804,7 +6793,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6836,7 +6825,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6868,7 +6857,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6900,7 +6889,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6932,7 +6921,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6964,7 +6953,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6996,7 +6985,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7028,7 +7017,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7060,7 +7049,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7092,7 +7081,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7124,7 +7113,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7156,7 +7145,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7188,7 +7177,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7220,7 +7209,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7252,7 +7241,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7284,7 +7273,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7316,7 +7305,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7348,7 +7337,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7380,7 +7369,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7412,7 +7401,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7444,7 +7433,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7476,7 +7465,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7508,7 +7497,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7540,7 +7529,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7572,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7604,7 +7593,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7636,7 +7625,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7668,7 +7657,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7700,7 +7689,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7726,19 +7715,28 @@
         <v>41</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>59</v>
       </c>
       <c r="I260" t="s">
         <v>43</v>
+      </c>
+      <c r="J260" t="s">
+        <v>60</v>
+      </c>
+      <c r="L260" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7755,16 +7753,13 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>43</v>
-      </c>
-      <c r="J261" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7781,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.15</v>
@@ -7807,7 +7802,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.15</v>
@@ -7833,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.15</v>
@@ -7859,7 +7854,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.15</v>
@@ -7885,7 +7880,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.15</v>
@@ -7911,7 +7906,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.15</v>
@@ -7937,7 +7932,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.15</v>
@@ -7963,7 +7958,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.15</v>
@@ -7989,7 +7984,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.15</v>
@@ -8015,7 +8010,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.15</v>
@@ -8041,7 +8036,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.15</v>
@@ -8067,7 +8062,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.15</v>
@@ -8093,7 +8088,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.15</v>
@@ -8119,7 +8114,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.15</v>
@@ -8145,7 +8140,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.15</v>
@@ -8171,7 +8166,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.15</v>
@@ -8197,7 +8192,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.15</v>
@@ -8223,7 +8218,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.15</v>
@@ -8249,7 +8244,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.15</v>
@@ -8275,7 +8270,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.15</v>
@@ -8301,7 +8296,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.15</v>
@@ -8327,7 +8322,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.15</v>
@@ -8353,7 +8348,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.15</v>
@@ -8379,7 +8374,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.15</v>
@@ -8405,7 +8400,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.15</v>
@@ -8431,7 +8426,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.15</v>
@@ -8457,7 +8452,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.15</v>
@@ -8483,7 +8478,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.15</v>
@@ -8503,22 +8498,22 @@
         <v>41</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I290" t="s">
         <v>43</v>
       </c>
       <c r="J290" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8535,13 +8530,16 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>43</v>
+      </c>
+      <c r="J291" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8558,7 +8556,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>1E-3</v>
@@ -8581,7 +8579,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>1E-3</v>
@@ -8604,7 +8602,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>1E-3</v>
@@ -8627,7 +8625,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>1E-3</v>
@@ -8650,7 +8648,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>1E-3</v>
@@ -8673,7 +8671,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>1E-3</v>
@@ -8696,7 +8694,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>1E-3</v>
@@ -8719,7 +8717,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>1E-3</v>
@@ -8742,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>1E-3</v>
@@ -8765,7 +8763,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>1E-3</v>
@@ -8788,7 +8786,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>1E-3</v>
@@ -8811,7 +8809,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>1E-3</v>
@@ -8834,7 +8832,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>1E-3</v>
@@ -8857,7 +8855,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>1E-3</v>
@@ -8880,7 +8878,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>1E-3</v>
@@ -8903,7 +8901,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>1E-3</v>
@@ -8926,7 +8924,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>1E-3</v>
@@ -8949,7 +8947,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>1E-3</v>
@@ -8972,7 +8970,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>1E-3</v>
@@ -8995,7 +8993,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>1E-3</v>
@@ -9018,7 +9016,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>1E-3</v>
@@ -9041,7 +9039,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>1E-3</v>
@@ -9064,7 +9062,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>1E-3</v>
@@ -9087,7 +9085,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>1E-3</v>
@@ -9110,7 +9108,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>1E-3</v>
@@ -9133,7 +9131,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>1E-3</v>
@@ -9156,7 +9154,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>1E-3</v>
@@ -9179,7 +9177,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>1E-3</v>
@@ -9188,11 +9186,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>1E-3</v>
+      </c>
+      <c r="I320" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/chp/CHE_convchp_biomass.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_biomass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3296F55-00BE-8642-BABA-A348D0D3E433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E37B89-2967-E049-85E4-C2F5D62E8614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="500" windowWidth="20900" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,9 +380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,9 +420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +455,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,26 +490,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,8 +669,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="5" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7756,7 +7722,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="I261" t="s">
         <v>43</v>
@@ -8533,7 +8499,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I291" t="s">
         <v>43</v>
